--- a/DataSet/Integration_DataSet/Extracts/DNR/DNR_Reports/AHBCO_001_Report.xlsx
+++ b/DataSet/Integration_DataSet/Extracts/DNR/DNR_Reports/AHBCO_001_Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="123820"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNR\DNR_Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6FF1BA-6FD7-4F60-BCA9-09D5092FB959}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC4F646-8D07-439A-A45F-59ED05C4141E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1575" yWindow="1410" windowWidth="21285" windowHeight="10125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1860" yWindow="1590" windowWidth="24015" windowHeight="10125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Agency_CashOut" sheetId="1" r:id="rId1"/>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -701,6 +701,12 @@
       <c r="A4" s="4">
         <v>80000</v>
       </c>
+      <c r="D4" s="6">
+        <v>43976</v>
+      </c>
+      <c r="E4" s="6">
+        <v>43976</v>
+      </c>
       <c r="J4" s="5" t="s">
         <v>29</v>
       </c>
@@ -714,9 +720,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -884,19 +893,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6910F788-43F3-4F97-91F1-AF8ECD89798F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C034BC25-7663-43F3-8541-5CCE36D83FD0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -920,9 +925,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C034BC25-7663-43F3-8541-5CCE36D83FD0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6910F788-43F3-4F97-91F1-AF8ECD89798F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>